--- a/project/public/TableauDeSynthèse.xlsx
+++ b/project/public/TableauDeSynthèse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BTS\2025\CIRCULAIRES NATIONALES\SIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2A326D346C37122E9DDF6762CE0205347C3552B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1556B703-D6F0-4012-843B-57A7165FC0E2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06366BEE-57F4-4DD6-909B-B3156DE9B9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -136,6 +136,42 @@
   </si>
   <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
+  </si>
+  <si>
+    <t>Projet Bibliothèque</t>
+  </si>
+  <si>
+    <t>22/01/2025 au 20/03/2025</t>
+  </si>
+  <si>
+    <t>Projet Calculatrice</t>
+  </si>
+  <si>
+    <t>22/01/2025 au 12/02/2025</t>
+  </si>
+  <si>
+    <t>Projet RespireStat</t>
+  </si>
+  <si>
+    <t>26/03/2025 au 15/04/2025</t>
+  </si>
+  <si>
+    <t>Projet Facturation</t>
+  </si>
+  <si>
+    <t>12/03/2025 au 19/03/2025</t>
+  </si>
+  <si>
+    <t>développement d'un CRM pour courtiers en prêt immobilier</t>
+  </si>
+  <si>
+    <t>28/04/2025 au 25/06/2025</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ×</t>
   </si>
 </sst>
 </file>
@@ -145,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,7 +239,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="48"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -607,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -648,95 +684,107 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,6 +802,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>173846</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>455726</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>403114</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Encre 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9B48F6-7387-5343-12A6-1EBA6715CFC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13116960" y="1708594"/>
+            <a:ext cx="281880" cy="218520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Encre 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9B48F6-7387-5343-12A6-1EBA6715CFC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13110832" y="1702474"/>
+              <a:ext cx="294136" cy="230760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-25T23:28:45.250"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">122 1 24575,'3'1'0,"-1"0"0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,2 3 0,14 14 0,15 2 0,44 21 0,23 15 0,-87-49 0,-1 1 0,-1-1 0,1 2 0,-2 0 0,1 0 0,10 15 0,-6-7 0,1 0 0,1 0 0,27 21 0,-34-32 0,0-1 0,0 0 0,1-1 0,11 5 0,-10-4 0,0-1 0,0 1 0,12 10 0,-4-1-111,-10-7-98,1 0 0,0 0 0,0-1 0,1 0 0,20 9 0,-8-8-6617</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1862.42">1 607 24575,'0'-5'0,"1"1"0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,1 0 0,4-6 0,5-3 0,1 0 0,18-14 0,-21 18 0,1 0 0,-2-1 0,18-19 0,-9 6 0,37-35 0,1-1 0,-36 37 0,1 1 0,0 1 0,2 2 0,30-20 0,-24 18 0,-2-2 0,34-31 0,-57 48-227,1 1-1,-1-1 1,1 0-1,0 1 1,6-3-1,7-2-6598</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1048,95 +1194,99 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.42578125" customWidth="1"/>
-    <col min="44" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.44140625" customWidth="1"/>
+    <col min="44" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1">
-      <c r="A2" s="22" t="s">
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="42"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1158,25 +1308,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>22</v>
       </c>
       <c r="I7"/>
@@ -1215,17 +1365,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1262,15 +1412,29 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>37</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1307,15 +1471,29 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>36</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1352,15 +1530,29 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>36</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1397,15 +1589,29 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>36</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1442,15 +1648,15 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1487,15 +1693,15 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1532,15 +1738,15 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1577,15 +1783,15 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1622,15 +1828,15 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1667,15 +1873,15 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1712,17 +1918,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1759,15 +1965,29 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>36</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1804,15 +2024,15 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1849,15 +2069,15 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1894,15 +2114,15 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1939,15 +2159,15 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -1984,15 +2204,15 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2029,15 +2249,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2074,17 +2294,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A27" s="36" t="s">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2121,15 +2341,15 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2166,15 +2386,15 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2211,15 +2431,15 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2256,15 +2476,15 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2301,15 +2521,15 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2346,15 +2566,15 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2391,15 +2611,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2436,7 +2656,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2481,54 +2701,59 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1"/>
-    <row r="37" spans="1:43" customFormat="1"/>
-    <row r="38" spans="1:43" customFormat="1"/>
-    <row r="39" spans="1:43" customFormat="1"/>
-    <row r="40" spans="1:43" customFormat="1"/>
-    <row r="41" spans="1:43" customFormat="1"/>
-    <row r="42" spans="1:43" customFormat="1"/>
-    <row r="43" spans="1:43" customFormat="1"/>
-    <row r="44" spans="1:43" customFormat="1"/>
-    <row r="45" spans="1:43" customFormat="1"/>
-    <row r="46" spans="1:43" customFormat="1"/>
-    <row r="47" spans="1:43" customFormat="1"/>
-    <row r="48" spans="1:43" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2536,30 +2761,17 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0540109B649AC4795630F51507852BE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cf048a6d6fb8ba83b9c5cef3d725a4c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9afeb195-fe8e-4d53-b966-ac86e014f9d0" xmlns:ns3="b96438d6-4088-444b-a148-08e2a0c42289" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2192bdb00a2bee568ac6fc3179bc9a06" ns2:_="" ns3:_="">
     <xsd:import namespace="9afeb195-fe8e-4d53-b966-ac86e014f9d0"/>
@@ -2760,6 +2972,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2772,13 +2993,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{574C0259-CE3C-4D74-A0FE-24A73702E787}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2502A182-1D4D-4870-9B03-D233D553CEA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9afeb195-fe8e-4d53-b966-ac86e014f9d0"/>
+    <ds:schemaRef ds:uri="b96438d6-4088-444b-a148-08e2a0c42289"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2502A182-1D4D-4870-9B03-D233D553CEA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{574C0259-CE3C-4D74-A0FE-24A73702E787}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EA3166D-F719-49F0-B698-E9057D9EDF6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EA3166D-F719-49F0-B698-E9057D9EDF6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9afeb195-fe8e-4d53-b966-ac86e014f9d0"/>
+    <ds:schemaRef ds:uri="b96438d6-4088-444b-a148-08e2a0c42289"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/project/public/TableauDeSynthèse.xlsx
+++ b/project/public/TableauDeSynthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06366BEE-57F4-4DD6-909B-B3156DE9B9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA69946D-13FF-4E05-9DE6-FFF6BC42D18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>h</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>Option :</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
   </si>
   <si>
     <t>▢ SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -172,6 +166,12 @@
   </si>
   <si>
     <t xml:space="preserve"> ×</t>
+  </si>
+  <si>
+    <t>Centre de formation : Ipssi campus de Marne-La-Vallée</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio :https://matthieu77220.github.io/portfolio/</t>
   </si>
 </sst>
 </file>
@@ -705,15 +705,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,45 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,19 +808,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>173846</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1175658</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>184594</xdr:rowOff>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>455726</xdr:colOff>
+      <xdr:colOff>478647</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>403114</xdr:rowOff>
+      <xdr:rowOff>347879</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Encre 3">
@@ -833,13 +833,13 @@
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="13116960" y="1708594"/>
-            <a:ext cx="281880" cy="218520"/>
+          <xdr14:xfrm flipH="1" flipV="1">
+            <a:off x="13237029" y="1632856"/>
+            <a:ext cx="587504" cy="239023"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Encre 3">
@@ -897,8 +897,8 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">122 1 24575,'3'1'0,"-1"0"0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,2 3 0,14 14 0,15 2 0,44 21 0,23 15 0,-87-49 0,-1 1 0,-1-1 0,1 2 0,-2 0 0,1 0 0,10 15 0,-6-7 0,1 0 0,1 0 0,27 21 0,-34-32 0,0-1 0,0 0 0,1-1 0,11 5 0,-10-4 0,0-1 0,0 1 0,12 10 0,-4-1-111,-10-7-98,1 0 0,0 0 0,0-1 0,1 0 0,20 9 0,-8-8-6617</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1862.42">1 607 24575,'0'-5'0,"1"1"0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,1 0 0,4-6 0,5-3 0,1 0 0,18-14 0,-21 18 0,1 0 0,-2-1 0,18-19 0,-9 6 0,37-35 0,1-1 0,-36 37 0,1 1 0,0 1 0,2 2 0,30-20 0,-24 18 0,-2-2 0,34-31 0,-57 48-227,1 1-1,-1-1 1,1 0-1,0 1 1,6-3-1,7-2-6598</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1378 666 24575,'-6'-1'0,"1"0"0,1 0 0,0 0 0,0-2 0,0 2 0,0-1 0,-1 1 0,1-1 0,2 0 0,-2-1 0,0 2 0,2-1 0,-4-3 0,-30-16 0,-31-2 0,-91-23 0,-48-16 0,181 53 0,2-1 0,2 1 0,-2-2 0,4 0 0,-2 0 0,-20-16 0,11 7 0,-1 1 0,-2-1 0,-57-23 0,72 36 0,-1 0 0,0 1 0,-2 0 0,-23-5 0,21 5 0,1 0 0,-1 0 0,-25-12 0,8 2-111,21 7-98,-2 0 0,1 0 0,-1 2 0,-2-1 0,-42-9 0,17 8-6617</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1862.42">1630 3 24575,'0'6'0,"-2"-2"0,2 0 0,-2 1 0,0-1 0,0 0 0,0 0 0,-3 0 0,3 0 0,-2 1 0,0-2 0,0 1 0,0 0 0,-3-1 0,-7 7 0,-11 3 0,-2 0 0,-38 16 0,44-21 0,-2 1 0,5 1 0,-39 21 0,20-7 0,-78 38 0,-1 1 0,74-40 0,-2-1 0,0-1 0,-4-2 0,-62 21 0,49-19 0,5 2 0,-71 34 0,119-53-227,-3-1-1,3 2 1,-2-1-1,-1-1 1,-12 4-1,-14 2-6598</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1194,8 +1194,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1212,122 +1212,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="41" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="42"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="34"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="18" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="B6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="D7" s="19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>22</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1366,16 +1366,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="A8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1414,26 +1414,26 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>37</v>
+      <c r="F9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1473,26 +1473,26 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>36</v>
+      <c r="F10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1532,26 +1532,26 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>36</v>
+      <c r="F11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1591,26 +1591,26 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>36</v>
+      <c r="F12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1919,16 +1919,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="A19" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1967,26 +1967,26 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>36</v>
+      <c r="D20" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>36</v>
+      <c r="F20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -2295,16 +2295,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="A27" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2749,11 +2749,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2761,6 +2756,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2973,15 +2973,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9afeb195-fe8e-4d53-b966-ac86e014f9d0">
@@ -2990,6 +2981,15 @@
     <TaxCatchAll xmlns="b96438d6-4088-444b-a148-08e2a0c42289" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3012,14 +3012,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{574C0259-CE3C-4D74-A0FE-24A73702E787}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EA3166D-F719-49F0-B698-E9057D9EDF6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3028,4 +3020,12 @@
     <ds:schemaRef ds:uri="b96438d6-4088-444b-a148-08e2a0c42289"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{574C0259-CE3C-4D74-A0FE-24A73702E787}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>